--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\Projects\ElevatorSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E1C5D8-469C-459C-8A42-CA78C0DA84B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A75980-979C-4D3C-A268-BA7EBE0373E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{DC4F33DF-194B-4D15-9028-BD94F50CC2E9}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>Interest per floor: 7, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>Energy percent change</t>
-  </si>
-  <si>
     <t>Waiting time percent change</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Smart relocation: false</t>
+  </si>
+  <si>
+    <t>Floors traveled percent change</t>
   </si>
 </sst>
 </file>
@@ -3892,7 +3892,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy percent change</c:v>
+                  <c:v>Floors traveled percent change</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4446,7 +4446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy percent change</c:v>
+                  <c:v>Floors traveled percent change</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5000,7 +5000,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy percent change</c:v>
+                  <c:v>Floors traveled percent change</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9229,13 +9229,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>169067</xdr:colOff>
+      <xdr:colOff>230980</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42864</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -9303,15 +9303,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>498872</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>60722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>364334</xdr:colOff>
+      <xdr:colOff>310756</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>165497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9341,15 +9341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>296466</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>55958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>221459</xdr:colOff>
+      <xdr:colOff>108350</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>160733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9378,16 +9378,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>621507</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60590</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>3704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
+      <xdr:colOff>89429</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:rowOff>165630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9453,13 +9453,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>129117</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
+      <xdr:colOff>160073</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
@@ -9790,8 +9790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BCD002-4B05-46C5-B22E-1ABA7404F39C}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="X85" sqref="X85"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10549,19 +10549,19 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
         <v>7</v>
       </c>
       <c r="L59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
@@ -10569,28 +10569,28 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s">
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
